--- a/Unity/Assets/Config/Excel/EquipmentConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EquipmentConfig.xlsx
@@ -10,7 +10,7 @@
     <sheet name="EquipmentConfig" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EquipmentConfig!$A$1:$C$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EquipmentConfig!$A$1:$C$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -47,6 +47,9 @@
     <t>Random</t>
   </si>
   <si>
+    <t>CharacterFlag</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -62,6 +65,39 @@
     <t>int#ref=PropertyRandomConfigCategory</t>
   </si>
   <si>
+    <t>CharacterType</t>
+  </si>
+  <si>
+    <t>战士</t>
+  </si>
+  <si>
+    <t>骑士</t>
+  </si>
+  <si>
+    <t>法师</t>
+  </si>
+  <si>
+    <t>牧师</t>
+  </si>
+  <si>
+    <t>盗贼</t>
+  </si>
+  <si>
+    <t>德鲁伊</t>
+  </si>
+  <si>
+    <t>猎人</t>
+  </si>
+  <si>
+    <t>术士</t>
+  </si>
+  <si>
+    <t>萨满</t>
+  </si>
+  <si>
+    <t>死亡骑士</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -80,6 +116,9 @@
     <t>随机属性包</t>
   </si>
   <si>
+    <t>装备对应职业</t>
+  </si>
+  <si>
     <t>破布头巾</t>
   </si>
   <si>
@@ -105,6 +144,24 @@
   </si>
   <si>
     <t>碎裂的饰品</t>
+  </si>
+  <si>
+    <t>裂皮头巾</t>
+  </si>
+  <si>
+    <t>裂皮护肩</t>
+  </si>
+  <si>
+    <t>裂皮护甲</t>
+  </si>
+  <si>
+    <t>裂皮腰带</t>
+  </si>
+  <si>
+    <t>裂皮裤子</t>
+  </si>
+  <si>
+    <t>裂皮鞋子</t>
   </si>
 </sst>
 </file>
@@ -276,7 +333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +349,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,7 +671,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,16 +695,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -656,90 +719,91 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -747,11 +811,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1079,212 +1155,776 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="29.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="42.125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="29.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.125" style="5" customWidth="1"/>
+    <col min="6" max="10" width="5.125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="7" style="6" customWidth="1"/>
+    <col min="12" max="14" width="5.125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="6" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:15">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
-      <c r="A2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:15">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="E2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:5">
-      <c r="A3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+    <row r="3" s="3" customFormat="1" spans="1:15">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>15</v>
-      </c>
+    <row r="4" s="4" customFormat="1" spans="1:5">
+      <c r="A4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="4">
+    <row r="5" s="1" customFormat="1" spans="1:15">
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
         <v>60010</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="5">
         <v>1003</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E6" s="5">
         <v>2001</v>
       </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="4">
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
         <v>60011</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5">
         <v>1004</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="5">
         <v>2001</v>
       </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1</v>
+      </c>
+      <c r="M7" s="6">
+        <v>1</v>
+      </c>
+      <c r="N7" s="6">
+        <v>1</v>
+      </c>
+      <c r="O7" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="4">
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
         <v>60012</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="5">
         <v>1005</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="5">
         <v>2001</v>
       </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="4">
+    <row r="9" spans="2:15">
+      <c r="B9" s="5">
         <v>60013</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="5">
         <v>1003</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="5">
         <v>2001</v>
       </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+      <c r="M9" s="6">
+        <v>1</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1</v>
+      </c>
+      <c r="O9" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="4">
+    <row r="10" spans="2:15">
+      <c r="B10" s="5">
         <v>60014</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5">
         <v>1004</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="5">
         <v>2001</v>
       </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
+        <v>1</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1</v>
+      </c>
+      <c r="O10" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="4">
+    <row r="11" spans="2:15">
+      <c r="B11" s="5">
         <v>60015</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="5">
         <v>1005</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="5">
         <v>2001</v>
       </c>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="4">
+    <row r="12" spans="2:15">
+      <c r="B12" s="5">
         <v>60016</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="C12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="5">
         <v>1003</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E12" s="5">
         <v>2001</v>
       </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1</v>
+      </c>
+      <c r="M12" s="6">
+        <v>1</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="4">
+    <row r="13" spans="2:15">
+      <c r="B13" s="5">
         <v>60017</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="C13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="5">
         <v>1004</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E13" s="5">
         <v>2001</v>
       </c>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" s="6">
+        <v>1</v>
+      </c>
+      <c r="M13" s="6">
+        <v>1</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1</v>
+      </c>
+      <c r="O13" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="4">
+    <row r="14" spans="2:15">
+      <c r="B14" s="5">
         <v>60018</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="5">
         <v>1005</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E14" s="5">
         <v>2001</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1</v>
+      </c>
+      <c r="N14" s="6">
+        <v>1</v>
+      </c>
+      <c r="O14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="5">
+        <v>60019</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1003</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2001</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1</v>
+      </c>
+      <c r="L15" s="6">
+        <v>1</v>
+      </c>
+      <c r="N15" s="6">
+        <v>1</v>
+      </c>
+      <c r="O15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="5">
+        <v>60020</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1004</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2001</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1</v>
+      </c>
+      <c r="L16" s="6">
+        <v>1</v>
+      </c>
+      <c r="N16" s="6">
+        <v>1</v>
+      </c>
+      <c r="O16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="5">
+        <v>60021</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1005</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2001</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1</v>
+      </c>
+      <c r="L17" s="6">
+        <v>1</v>
+      </c>
+      <c r="N17" s="6">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="5">
+        <v>60022</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1003</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2001</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6">
+        <v>1</v>
+      </c>
+      <c r="N18" s="6">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="5">
+        <v>60023</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1004</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2001</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1</v>
+      </c>
+      <c r="L19" s="6">
+        <v>1</v>
+      </c>
+      <c r="N19" s="6">
+        <v>1</v>
+      </c>
+      <c r="O19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="5">
+        <v>60024</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1005</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2001</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
+      <c r="L20" s="6">
+        <v>1</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C13">
+  <autoFilter ref="A1:C14">
     <extLst/>
   </autoFilter>
+  <mergeCells count="3">
+    <mergeCell ref="F1:O1"/>
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="F5:O5"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/Unity/Assets/Config/Excel/EquipmentConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EquipmentConfig.xlsx
@@ -539,12 +539,92 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -671,7 +751,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -683,34 +763,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -796,7 +876,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -823,12 +903,29 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1157,8 +1254,8 @@
   <sheetPr/>
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1241,45 +1338,47 @@
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:5">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="4" customFormat="1" spans="1:15">
+      <c r="A4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="O4" s="21"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="7" t="s">
@@ -1297,7 +1396,7 @@
       <c r="E5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="16" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="8"/>
@@ -1308,7 +1407,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="O5" s="22"/>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="5">
@@ -1323,7 +1422,7 @@
       <c r="E6" s="5">
         <v>2001</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="17">
         <v>1</v>
       </c>
       <c r="G6" s="6">
@@ -1350,7 +1449,7 @@
       <c r="N6" s="6">
         <v>1</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1367,7 +1466,7 @@
       <c r="E7" s="5">
         <v>2001</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="17">
         <v>1</v>
       </c>
       <c r="G7" s="6">
@@ -1394,7 +1493,7 @@
       <c r="N7" s="6">
         <v>1</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1411,7 +1510,7 @@
       <c r="E8" s="5">
         <v>2001</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="17">
         <v>1</v>
       </c>
       <c r="G8" s="6">
@@ -1438,7 +1537,7 @@
       <c r="N8" s="6">
         <v>1</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1455,7 +1554,7 @@
       <c r="E9" s="5">
         <v>2001</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="17">
         <v>1</v>
       </c>
       <c r="G9" s="6">
@@ -1482,7 +1581,7 @@
       <c r="N9" s="6">
         <v>1</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1499,7 +1598,7 @@
       <c r="E10" s="5">
         <v>2001</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="17">
         <v>1</v>
       </c>
       <c r="G10" s="6">
@@ -1526,7 +1625,7 @@
       <c r="N10" s="6">
         <v>1</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1543,7 +1642,7 @@
       <c r="E11" s="5">
         <v>2001</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="17">
         <v>1</v>
       </c>
       <c r="G11" s="6">
@@ -1570,7 +1669,7 @@
       <c r="N11" s="6">
         <v>1</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1587,7 +1686,7 @@
       <c r="E12" s="5">
         <v>2001</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="17">
         <v>1</v>
       </c>
       <c r="G12" s="6">
@@ -1614,7 +1713,7 @@
       <c r="N12" s="6">
         <v>1</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1631,7 +1730,7 @@
       <c r="E13" s="5">
         <v>2001</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="17">
         <v>1</v>
       </c>
       <c r="G13" s="6">
@@ -1658,7 +1757,7 @@
       <c r="N13" s="6">
         <v>1</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1675,7 +1774,7 @@
       <c r="E14" s="5">
         <v>2001</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="17">
         <v>1</v>
       </c>
       <c r="G14" s="6">
@@ -1702,7 +1801,7 @@
       <c r="N14" s="6">
         <v>1</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1719,7 +1818,7 @@
       <c r="E15" s="5">
         <v>2001</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="17">
         <v>1</v>
       </c>
       <c r="G15" s="6">
@@ -1737,7 +1836,7 @@
       <c r="N15" s="6">
         <v>1</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1754,7 +1853,7 @@
       <c r="E16" s="5">
         <v>2001</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="17">
         <v>1</v>
       </c>
       <c r="G16" s="6">
@@ -1772,7 +1871,7 @@
       <c r="N16" s="6">
         <v>1</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1789,7 +1888,7 @@
       <c r="E17" s="5">
         <v>2001</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="17">
         <v>1</v>
       </c>
       <c r="G17" s="6">
@@ -1807,7 +1906,7 @@
       <c r="N17" s="6">
         <v>1</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1824,7 +1923,7 @@
       <c r="E18" s="5">
         <v>2001</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="17">
         <v>1</v>
       </c>
       <c r="G18" s="6">
@@ -1842,7 +1941,7 @@
       <c r="N18" s="6">
         <v>1</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1859,7 +1958,7 @@
       <c r="E19" s="5">
         <v>2001</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="17">
         <v>1</v>
       </c>
       <c r="G19" s="6">
@@ -1877,7 +1976,7 @@
       <c r="N19" s="6">
         <v>1</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1894,25 +1993,28 @@
       <c r="E20" s="5">
         <v>2001</v>
       </c>
-      <c r="F20" s="13">
-        <v>1</v>
-      </c>
-      <c r="G20" s="6">
-        <v>1</v>
-      </c>
-      <c r="J20" s="6">
-        <v>1</v>
-      </c>
-      <c r="K20" s="6">
-        <v>1</v>
-      </c>
-      <c r="L20" s="6">
-        <v>1</v>
-      </c>
-      <c r="N20" s="6">
-        <v>1</v>
-      </c>
-      <c r="O20" s="6">
+      <c r="F20" s="18">
+        <v>1</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19">
+        <v>1</v>
+      </c>
+      <c r="K20" s="19">
+        <v>1</v>
+      </c>
+      <c r="L20" s="19">
+        <v>1</v>
+      </c>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19">
+        <v>1</v>
+      </c>
+      <c r="O20" s="24">
         <v>1</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/EquipmentConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EquipmentConfig.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25140" windowHeight="10065" tabRatio="809"/>
+    <workbookView windowWidth="22095" windowHeight="7740" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="EquipmentConfig" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EquipmentConfig!$A$1:$C$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EquipmentConfig!$A$1:$C$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1254,8 +1254,8 @@
   <sheetPr/>
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2019,7 +2019,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C14">
+  <autoFilter ref="A1:C20">
     <extLst/>
   </autoFilter>
   <mergeCells count="3">

--- a/Unity/Assets/Config/Excel/EquipmentConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EquipmentConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22095" windowHeight="7740" tabRatio="809"/>
+    <workbookView windowWidth="25350" windowHeight="10455" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="EquipmentConfig" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>##var</t>
   </si>
@@ -41,6 +41,9 @@
     <t>#Desc</t>
   </si>
   <si>
+    <t>EquipmentType</t>
+  </si>
+  <si>
     <t>Base</t>
   </si>
   <si>
@@ -110,6 +113,9 @@
     <t>道具描述</t>
   </si>
   <si>
+    <t>装备位置</t>
+  </si>
+  <si>
     <t>基础属性包</t>
   </si>
   <si>
@@ -122,28 +128,55 @@
     <t>破布头巾</t>
   </si>
   <si>
+    <t>头</t>
+  </si>
+  <si>
     <t>碎裂的项链</t>
   </si>
   <si>
+    <t>项链</t>
+  </si>
+  <si>
     <t>破布披肩</t>
   </si>
   <si>
+    <t>肩膀</t>
+  </si>
+  <si>
     <t>破布旅衣</t>
   </si>
   <si>
+    <t>胸</t>
+  </si>
+  <si>
     <t>破布腰带</t>
   </si>
   <si>
+    <t>腰带</t>
+  </si>
+  <si>
     <t>破布裤子</t>
   </si>
   <si>
+    <t>裤子</t>
+  </si>
+  <si>
     <t>破布鞋子</t>
   </si>
   <si>
+    <t>鞋子</t>
+  </si>
+  <si>
     <t>碎裂的戒指</t>
   </si>
   <si>
+    <t>戒指</t>
+  </si>
+  <si>
     <t>碎裂的饰品</t>
+  </si>
+  <si>
+    <t>饰品</t>
   </si>
   <si>
     <t>裂皮头巾</t>
@@ -876,7 +909,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -913,6 +946,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1252,27 +1288,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="29.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="33.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.125" style="5" customWidth="1"/>
-    <col min="6" max="10" width="5.125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="7" style="6" customWidth="1"/>
-    <col min="12" max="14" width="5.125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="8.875" style="6" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="6"/>
+    <col min="3" max="4" width="25.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="42.125" style="5" customWidth="1"/>
+    <col min="7" max="11" width="5.125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="7" style="6" customWidth="1"/>
+    <col min="13" max="15" width="5.125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="6" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" spans="1:16">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1288,10 +1324,12 @@
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8"/>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -1300,27 +1338,30 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:15">
+    <row r="2" s="2" customFormat="1" spans="1:16">
       <c r="A2" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -1329,8 +1370,9 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:15">
+    <row r="3" s="3" customFormat="1" spans="1:16">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -1338,10 +1380,8 @@
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -1365,41 +1405,47 @@
       <c r="N3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="P3" s="21" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:15">
+    <row r="4" s="4" customFormat="1" spans="1:16">
       <c r="A4" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="O4" s="21"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="P4" s="22"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:15">
+    <row r="5" s="1" customFormat="1" spans="1:16">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -1407,25 +1453,26 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="22"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="23"/>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:16">
       <c r="B6" s="5">
         <v>60010</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5">
+        <v>31</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5">
         <v>1003</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>2001</v>
       </c>
-      <c r="F6" s="17">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="G6" s="17">
         <v>1</v>
       </c>
       <c r="H6" s="6">
@@ -1449,27 +1496,30 @@
       <c r="N6" s="6">
         <v>1</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:16">
       <c r="B7" s="5">
         <v>60011</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="5">
+        <v>33</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="5">
         <v>1004</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>2001</v>
       </c>
-      <c r="F7" s="17">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="G7" s="17">
         <v>1</v>
       </c>
       <c r="H7" s="6">
@@ -1493,27 +1543,30 @@
       <c r="N7" s="6">
         <v>1</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="6">
+        <v>1</v>
+      </c>
+      <c r="P7" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:16">
       <c r="B8" s="5">
         <v>60012</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="5">
+        <v>35</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="5">
         <v>1005</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <v>2001</v>
       </c>
-      <c r="F8" s="17">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="G8" s="17">
         <v>1</v>
       </c>
       <c r="H8" s="6">
@@ -1537,27 +1590,30 @@
       <c r="N8" s="6">
         <v>1</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
+      <c r="P8" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:16">
       <c r="B9" s="5">
         <v>60013</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="5">
+        <v>37</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="5">
         <v>1003</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>2001</v>
       </c>
-      <c r="F9" s="17">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="G9" s="17">
         <v>1</v>
       </c>
       <c r="H9" s="6">
@@ -1581,27 +1637,30 @@
       <c r="N9" s="6">
         <v>1</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="6">
+        <v>1</v>
+      </c>
+      <c r="P9" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:16">
       <c r="B10" s="5">
         <v>60014</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="5">
+        <v>39</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="5">
         <v>1004</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>2001</v>
       </c>
-      <c r="F10" s="17">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="G10" s="17">
         <v>1</v>
       </c>
       <c r="H10" s="6">
@@ -1625,27 +1684,30 @@
       <c r="N10" s="6">
         <v>1</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="6">
+        <v>1</v>
+      </c>
+      <c r="P10" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:16">
       <c r="B11" s="5">
         <v>60015</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="5">
+        <v>41</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="5">
         <v>1005</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F11" s="5">
         <v>2001</v>
       </c>
-      <c r="F11" s="17">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="G11" s="17">
         <v>1</v>
       </c>
       <c r="H11" s="6">
@@ -1669,27 +1731,30 @@
       <c r="N11" s="6">
         <v>1</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O11" s="6">
+        <v>1</v>
+      </c>
+      <c r="P11" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:16">
       <c r="B12" s="5">
         <v>60016</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="5">
+        <v>43</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="5">
         <v>1003</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <v>2001</v>
       </c>
-      <c r="F12" s="17">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="G12" s="17">
         <v>1</v>
       </c>
       <c r="H12" s="6">
@@ -1713,27 +1778,30 @@
       <c r="N12" s="6">
         <v>1</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="6">
+        <v>1</v>
+      </c>
+      <c r="P12" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:16">
       <c r="B13" s="5">
         <v>60017</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="5">
+        <v>45</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="5">
         <v>1004</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>2001</v>
       </c>
-      <c r="F13" s="17">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="G13" s="17">
         <v>1</v>
       </c>
       <c r="H13" s="6">
@@ -1757,27 +1825,30 @@
       <c r="N13" s="6">
         <v>1</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="6">
+        <v>1</v>
+      </c>
+      <c r="P13" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:16">
       <c r="B14" s="5">
         <v>60018</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="5">
+        <v>47</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="5">
         <v>1005</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5">
         <v>2001</v>
       </c>
-      <c r="F14" s="17">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="G14" s="17">
         <v>1</v>
       </c>
       <c r="H14" s="6">
@@ -1801,30 +1872,33 @@
       <c r="N14" s="6">
         <v>1</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="6">
+        <v>1</v>
+      </c>
+      <c r="P14" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:16">
       <c r="B15" s="5">
         <v>60019</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="5">
+        <v>49</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="5">
         <v>1003</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="5">
         <v>2001</v>
       </c>
-      <c r="F15" s="17">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="J15" s="6">
+      <c r="G15" s="17">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
         <v>1</v>
       </c>
       <c r="K15" s="6">
@@ -1833,33 +1907,36 @@
       <c r="L15" s="6">
         <v>1</v>
       </c>
-      <c r="N15" s="6">
-        <v>1</v>
-      </c>
-      <c r="O15" s="23">
+      <c r="M15" s="6">
+        <v>1</v>
+      </c>
+      <c r="O15" s="6">
+        <v>1</v>
+      </c>
+      <c r="P15" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:16">
       <c r="B16" s="5">
         <v>60020</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="5">
+        <v>50</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="5">
         <v>1004</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="5">
         <v>2001</v>
       </c>
-      <c r="F16" s="17">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1</v>
-      </c>
-      <c r="J16" s="6">
+      <c r="G16" s="17">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
         <v>1</v>
       </c>
       <c r="K16" s="6">
@@ -1868,33 +1945,36 @@
       <c r="L16" s="6">
         <v>1</v>
       </c>
-      <c r="N16" s="6">
-        <v>1</v>
-      </c>
-      <c r="O16" s="23">
+      <c r="M16" s="6">
+        <v>1</v>
+      </c>
+      <c r="O16" s="6">
+        <v>1</v>
+      </c>
+      <c r="P16" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:16">
       <c r="B17" s="5">
         <v>60021</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="5">
+        <v>51</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="5">
         <v>1005</v>
       </c>
-      <c r="E17" s="5">
+      <c r="F17" s="5">
         <v>2001</v>
       </c>
-      <c r="F17" s="17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="6">
-        <v>1</v>
-      </c>
-      <c r="J17" s="6">
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
         <v>1</v>
       </c>
       <c r="K17" s="6">
@@ -1903,33 +1983,36 @@
       <c r="L17" s="6">
         <v>1</v>
       </c>
-      <c r="N17" s="6">
-        <v>1</v>
-      </c>
-      <c r="O17" s="23">
+      <c r="M17" s="6">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6">
+        <v>1</v>
+      </c>
+      <c r="P17" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:16">
       <c r="B18" s="5">
         <v>60022</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="5">
+        <v>52</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="5">
         <v>1003</v>
       </c>
-      <c r="E18" s="5">
+      <c r="F18" s="5">
         <v>2001</v>
       </c>
-      <c r="F18" s="17">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6">
-        <v>1</v>
-      </c>
-      <c r="J18" s="6">
+      <c r="G18" s="17">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
         <v>1</v>
       </c>
       <c r="K18" s="6">
@@ -1938,33 +2021,36 @@
       <c r="L18" s="6">
         <v>1</v>
       </c>
-      <c r="N18" s="6">
-        <v>1</v>
-      </c>
-      <c r="O18" s="23">
+      <c r="M18" s="6">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6">
+        <v>1</v>
+      </c>
+      <c r="P18" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:16">
       <c r="B19" s="5">
         <v>60023</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="5">
+      <c r="E19" s="5">
         <v>1004</v>
       </c>
-      <c r="E19" s="5">
+      <c r="F19" s="5">
         <v>2001</v>
       </c>
-      <c r="F19" s="17">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6">
-        <v>1</v>
-      </c>
-      <c r="J19" s="6">
+      <c r="G19" s="17">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
         <v>1</v>
       </c>
       <c r="K19" s="6">
@@ -1973,48 +2059,54 @@
       <c r="L19" s="6">
         <v>1</v>
       </c>
-      <c r="N19" s="6">
-        <v>1</v>
-      </c>
-      <c r="O19" s="23">
+      <c r="M19" s="6">
+        <v>1</v>
+      </c>
+      <c r="O19" s="6">
+        <v>1</v>
+      </c>
+      <c r="P19" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:16">
       <c r="B20" s="5">
         <v>60024</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="5">
+        <v>54</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="5">
         <v>1005</v>
       </c>
-      <c r="E20" s="5">
+      <c r="F20" s="5">
         <v>2001</v>
       </c>
-      <c r="F20" s="18">
-        <v>1</v>
-      </c>
       <c r="G20" s="19">
         <v>1</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19">
-        <v>1</v>
-      </c>
-      <c r="K20" s="19">
-        <v>1</v>
-      </c>
-      <c r="L20" s="19">
-        <v>1</v>
-      </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19">
-        <v>1</v>
-      </c>
-      <c r="O20" s="24">
+      <c r="H20" s="20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20">
+        <v>1</v>
+      </c>
+      <c r="L20" s="20">
+        <v>1</v>
+      </c>
+      <c r="M20" s="20">
+        <v>1</v>
+      </c>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20">
+        <v>1</v>
+      </c>
+      <c r="P20" s="25">
         <v>1</v>
       </c>
     </row>
@@ -2023,9 +2115,9 @@
     <extLst/>
   </autoFilter>
   <mergeCells count="3">
-    <mergeCell ref="F1:O1"/>
-    <mergeCell ref="F2:O2"/>
-    <mergeCell ref="F5:O5"/>
+    <mergeCell ref="G1:P1"/>
+    <mergeCell ref="G2:P2"/>
+    <mergeCell ref="G5:P5"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
